--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_246.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_246.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,640 +488,682 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.421195652173913</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1388888888888889</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>[['F#:maj', 'B:maj', 'F#:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(21.44, 25.4)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(224.02, 241.44)]</t>
+          <t>[('0:00:10.960000', '0:00:13.760000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:56.454081', '0:01:01.864331')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_259</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1555555555555556</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['D', 'G', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(101.44, 112.4)]</t>
+          <t>[['A', 'D', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(93.3, 103.06)]</t>
+          <t>[('0:00:43.934000', '0:00:45.874000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:47.187000', '0:00:57.707000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_248</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_193</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09285714285714286</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['F#/4', 'B', 'E/5'], ['E/5', 'F#/4', 'B']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[['Bb', 'Eb', 'Ab'], ['Ab', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[('0:02:07.431000', '0:02:12.656000'), ('0:02:06.195000', '0:02:11.396000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:10.286000', '0:00:15.006000'), ('0:00:07.043000', '0:00:10.286000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1715686274509804</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'F']]</t>
-        </is>
+          <t>jaah_66</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_268</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06176470588235294</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['Ab', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(15.124263, 20.058503)]</t>
+          <t>[['A', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(25.015959, 36.625937)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:56.360000', '0:00:59.800000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:46.365011', '0:00:53.946326')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1777777777777778</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'F', 'C']]</t>
-        </is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2125874125874126</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['D:7', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(101.849092, 108.664149)]</t>
+          <t>[['D:7', 'G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(128.16, 129.88)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:07.102281', '0:00:22.589990')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:15', '0:00:22.400000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2095238095238095</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4147058823529411</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(46.75, 47.53)]</t>
+          <t>[['Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(7.9, 16.08)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:02:00.541156', '0:02:17.747142')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:07.449092', '0:02:20.823786')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_204</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3576923076923077</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.38, 8.9)]</t>
+          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(59.8, 69.34)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:20.580000', '0:02:23.320000'), ('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:32.874217', '0:00:37.657528'), ('0:00:33.698526', '0:00:40.885102')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_62</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_49</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02368836638006668</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:7', 'G:7'], ['D:7', 'G:min7', 'C:7']]</t>
-        </is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5454545454545454</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'C:7'], ['G:7', 'C:min7', 'F:7']]</t>
+          <t>[['D', 'G', 'C', 'G', 'D', 'C']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(7.92, 10.28), (29.42, 30.52)]</t>
+          <t>[['B', 'E', 'A', 'E', 'B', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(15.57, 18.04), (0.58, 1.8)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:28.800769', '0:00:47.981011')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:17.942016', '0:00:29.064375')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(15.124263, 20.058503)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(69.36, 73.2)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0832708177044261</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj(*1)/5', 'G', 'G'], ['A:min', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_39</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3904639175257732</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D', 'D/7', 'D/6'], ['E:min', 'A', 'D']]</t>
+          <t>[['E', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(10.454596, 24.259614), (98.07585, 110.185056)]</t>
+          <t>[['D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(11.500249, 13.311405), (47.993, 51.613644)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:00.426857', '0:00:03.509464')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:11.337709', '0:00:19.847823')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1589673913043478</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G/3', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(7.646772, 12.917702)]</t>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1970541401273885</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['F:7', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A'], ['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(8.94, 11.88), (27.25, 29.62)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(227.62, 235.06), (54.26, 61.02)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:12.820000', '0:00:52.640000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(70.06, 87.32)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2329545454545455</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C'], ['D:7', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A'], ['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(47.25, 51.08), (46.61, 49.8)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(227.62, 235.06), (54.26, 61.02)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.380000', '0:02:22.380000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_16</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1540178571428572</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:7', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:7', 'A']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(50.36, 54.4)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(42.96, 45.78)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(3.32, 6.3)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(40.12, 47.88)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
